--- a/example_table.xlsx
+++ b/example_table.xlsx
@@ -156,15 +156,15 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7185185185185"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -189,7 +189,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>160</v>
@@ -209,10 +209,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>7</v>
@@ -235,7 +235,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>8</v>
@@ -275,7 +275,7 @@
         <v>180</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>15</v>
